--- a/data/case1/20/cost_3.xlsx
+++ b/data/case1/20/cost_3.xlsx
@@ -58,18 +58,18 @@
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>161.62625207474133</v>
+        <v>161.63079833413553</v>
       </c>
       <c r="B1" s="0">
-        <v>6.5528232143571836</v>
+        <v>6.7983330273911902</v>
       </c>
       <c r="C1" s="0">
-        <v>1.2306588388780169</v>
+        <v>0.79373776908023486</v>
       </c>
     </row>
   </sheetData>
